--- a/biology/Médecine/Gaine_synoviale/Gaine_synoviale.xlsx
+++ b/biology/Médecine/Gaine_synoviale/Gaine_synoviale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La gaine synoviale est la gaine remplie de liquide synovial entourant le tendon, le protégeant ainsi des frottements avec l'os et permettant le glissement des tendons les uns par rapport aux autres. La gaine possède deux feuillets, un viscéral et un pariétal. 
 Il en existe deux types : 
